--- a/data/working-experience_es.xlsx
+++ b/data/working-experience_es.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11248759-514A-415E-9348-0F4C992315E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F2B76B-8ED4-478D-85E9-FD0B190044C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="2985" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,12 +85,6 @@
     <t>Profesor Auxiliar</t>
   </si>
   <si>
-    <t>Investigador en el Laboratorio de Análisis del Comportamiento Humano (LACH)</t>
-  </si>
-  <si>
-    <t>Líder del grupo de investigación Procesos Cognitivos y Educación (desde 2016)</t>
-  </si>
-  <si>
     <t>Supervisión de una variedad de proyectos de investigación de pregrado asociados con psicología y biología</t>
   </si>
   <si>
@@ -125,6 +119,12 @@
   </si>
   <si>
     <t>Supervisión de proyectos de investigación</t>
+  </si>
+  <si>
+    <t>Líder del grupo de investigación CODEC: Ciencias Cognitivas y del Comportamiento (desde 2016)</t>
+  </si>
+  <si>
+    <t>Investigador en EvoCo: Laboratorio de Evolución y Comportamiento Humano</t>
   </si>
 </sst>
 </file>
@@ -160,9 +160,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,27 +488,27 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -526,42 +525,42 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -577,8 +576,8 @@
       <c r="D15" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>31</v>
+      <c r="E15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -595,12 +594,12 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -617,12 +616,12 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data/working-experience_es.xlsx
+++ b/data/working-experience_es.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F2B76B-8ED4-478D-85E9-FD0B190044C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F6FA64-C7B0-46ED-AC43-94A7E9D9C9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="2985" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="3450" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>what</t>
   </si>
@@ -40,21 +40,9 @@
     <t>2011 - 2014</t>
   </si>
   <si>
-    <t>University of Stirling</t>
-  </si>
-  <si>
     <t>Chia, Colombia</t>
   </si>
   <si>
-    <t>Universidad El Bosque</t>
-  </si>
-  <si>
-    <t>Universidad de La Sabana</t>
-  </si>
-  <si>
-    <t>Universidad Pedagógica Nacional</t>
-  </si>
-  <si>
     <t>Ene. 2015 - Abr. 2019</t>
   </si>
   <si>
@@ -94,18 +82,12 @@
     <t>Miembro del Comité Asesor de Asuntos Éticos</t>
   </si>
   <si>
-    <t>Asesor metodológico y estadístico para proyectos de investigación de posgrado y profesores de la Facultad</t>
-  </si>
-  <si>
     <t>Organizador de la serie de conferencias semanales Café Nerd de la Facultad de Psicología (2016-2017)</t>
   </si>
   <si>
     <t>Estancia posdoctoral (2018-2019)</t>
   </si>
   <si>
-    <t>Co-supervisión de estudiantes de doctorado: Milena Vásquez-Amézquita (PhD en Neurociencia, Universidad de Valencia, España - 2015-2018)</t>
-  </si>
-  <si>
     <t>Co-supervisión de estudiantes de doctorado: Francisco Javier Flores  (Professional Doctorate in Counselling Psychology, University of East London, Reino Unido – 2016-2018)</t>
   </si>
   <si>
@@ -121,10 +103,28 @@
     <t>Supervisión de proyectos de investigación</t>
   </si>
   <si>
-    <t>Líder del grupo de investigación CODEC: Ciencias Cognitivas y del Comportamiento (desde 2016)</t>
-  </si>
-  <si>
-    <t>Investigador en EvoCo: Laboratorio de Evolución y Comportamiento Humano</t>
+    <t>Líder del grupo de investigación \href{https://investigaciones.unbosque.edu.co/codec}{\textit{\textbf{CODEC}: Ciencias Cognitivas y del Comportamiento}} (desde 2016)</t>
+  </si>
+  <si>
+    <t>Investigador en \href{https://jdleongomez.info/es/team/}{\textit{\textbf{EvoCo}: Laboratorio de Evolución y Comportamiento Humano}}</t>
+  </si>
+  <si>
+    <t>\href{https://www.unbosque.edu.co/}{Universidad El Bosque}</t>
+  </si>
+  <si>
+    <t>\href{https://www.unisabana.edu.co/}{Universidad de La Sabana}</t>
+  </si>
+  <si>
+    <t>\href{https://www.stir.ac.uk/}{University of Stirling}</t>
+  </si>
+  <si>
+    <t>\href{https://www.upn.edu.co/}{Universidad Pedagógica Nacional}</t>
+  </si>
+  <si>
+    <t>\href{https://asesores-psic.netlify.app/}{Asesor metodológico y estadístico} para proyectos de investigación de posgrado y profesores de la Facultad</t>
+  </si>
+  <si>
+    <t>Co-supervisión de estudiantes de doctorado: \href{https://www.researchgate.net/profile/Milena-Vasquez-Amezquita}{Milena Vásquez-Amézquita} (PhD en Neurociencia, Universidad de Valencia, España - 2015-2018)</t>
   </si>
 </sst>
 </file>
@@ -160,8 +160,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,154 +477,215 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
+      <c r="B19" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>2010</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data/working-experience_es.xlsx
+++ b/data/working-experience_es.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F6FA64-C7B0-46ED-AC43-94A7E9D9C9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A1B1C1-AC54-4952-B2F2-B2D157B539EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="3450" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,6 @@
     <t>Profesor Catedrático</t>
   </si>
   <si>
-    <t>Asistente de Enseñanza</t>
-  </si>
-  <si>
     <t>Profesor Auxiliar</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>Co-supervisión de estudiantes de doctorado: \href{https://www.researchgate.net/profile/Milena-Vasquez-Amezquita}{Milena Vásquez-Amézquita} (PhD en Neurociencia, Universidad de Valencia, España - 2015-2018)</t>
+  </si>
+  <si>
+    <t>Profesor reconocido de Psicología</t>
   </si>
 </sst>
 </file>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,13 +485,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -500,7 +500,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -509,7 +509,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -518,7 +518,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -527,7 +527,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -536,7 +536,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -562,7 +562,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -571,7 +571,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -589,7 +589,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -607,7 +607,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -616,7 +616,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -627,30 +627,30 @@
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -659,24 +659,24 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1">
         <v>2010</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -685,7 +685,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
